--- a/data_year/zb/科技/按登记注册类型和行业分大中型工业企业研究与试验发展(研究与试验发展)活动情况/按行业分大中型工业企业研究与试验发展项目数.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分大中型工业企业研究与试验发展(研究与试验发展)活动情况/按行业分大中型工业企业研究与试验发展项目数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,54 +628,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10669</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17024</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3524</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1622</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7694</v>
+      </c>
+      <c r="G2" t="n">
+        <v>931</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8754</v>
+      </c>
+      <c r="I2" t="n">
+        <v>519</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1342</v>
+      </c>
       <c r="K2" t="n">
-        <v>70580</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>145589</v>
+      </c>
+      <c r="L2" t="n">
+        <v>505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>730</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1009</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2763</v>
+      </c>
+      <c r="P2" t="n">
+        <v>276</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>222</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2119</v>
+      </c>
+      <c r="S2" t="n">
+        <v>129</v>
+      </c>
+      <c r="T2" t="n">
+        <v>689</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3978</v>
+      </c>
+      <c r="V2" t="n">
+        <v>71</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2094</v>
+      </c>
+      <c r="X2" t="n">
+        <v>16416</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>399</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1203</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3523</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3398</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>607</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>23141</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13479</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>939</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2675</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2845</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>179</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1826</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1665</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6510</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -688,7 +762,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>87207</v>
+        <v>161226</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -722,7 +796,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -735,7 +809,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>92913</v>
+        <v>192755</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -769,370 +843,148 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9342</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12926</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2468</v>
-      </c>
-      <c r="E5" t="n">
-        <v>817</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5362</v>
-      </c>
-      <c r="G5" t="n">
-        <v>556</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5762</v>
-      </c>
-      <c r="I5" t="n">
-        <v>478</v>
-      </c>
-      <c r="J5" t="n">
-        <v>735</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>103234</v>
-      </c>
-      <c r="L5" t="n">
-        <v>140</v>
-      </c>
-      <c r="M5" t="n">
-        <v>613</v>
-      </c>
-      <c r="N5" t="n">
-        <v>895</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2306</v>
-      </c>
-      <c r="P5" t="n">
-        <v>225</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>174</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1354</v>
-      </c>
-      <c r="S5" t="n">
-        <v>74</v>
-      </c>
-      <c r="T5" t="n">
-        <v>934</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2520</v>
-      </c>
-      <c r="V5" t="n">
-        <v>56</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2004</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10699</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>396</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1058</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2871</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2450</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>370</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13618</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>9845</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>593</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1718</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2134</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>165</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1051</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1253</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>5096</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>174</v>
-      </c>
+        <v>205146</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10030</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15031</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3449</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1405</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7727</v>
-      </c>
-      <c r="G6" t="n">
-        <v>753</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8272</v>
-      </c>
-      <c r="I6" t="n">
-        <v>483</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1282</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>133852</v>
-      </c>
-      <c r="L6" t="n">
-        <v>221</v>
-      </c>
-      <c r="M6" t="n">
-        <v>882</v>
-      </c>
-      <c r="N6" t="n">
-        <v>578</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2556</v>
-      </c>
-      <c r="P6" t="n">
-        <v>308</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>401</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1674</v>
-      </c>
-      <c r="S6" t="n">
-        <v>111</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1206</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3424</v>
-      </c>
-      <c r="V6" t="n">
-        <v>23</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2226</v>
-      </c>
-      <c r="X6" t="n">
-        <v>16168</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>607</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1203</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2914</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>4373</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>641</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>18037</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12647</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>764</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2182</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>2580</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1616</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2452</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>5287</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>157</v>
-      </c>
+        <v>210997</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10669</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17024</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3524</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1622</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7694</v>
-      </c>
-      <c r="G7" t="n">
-        <v>931</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8754</v>
-      </c>
-      <c r="I7" t="n">
-        <v>519</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1342</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>145589</v>
-      </c>
-      <c r="L7" t="n">
-        <v>505</v>
-      </c>
-      <c r="M7" t="n">
-        <v>730</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1009</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2763</v>
-      </c>
-      <c r="P7" t="n">
-        <v>276</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>222</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2119</v>
-      </c>
-      <c r="S7" t="n">
-        <v>129</v>
-      </c>
-      <c r="T7" t="n">
-        <v>689</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3978</v>
-      </c>
-      <c r="V7" t="n">
-        <v>71</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2094</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16416</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>399</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1203</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>3523</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>3398</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>607</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>23141</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13479</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>939</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2675</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>2845</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>179</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1826</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1665</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>6510</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>113</v>
-      </c>
+        <v>173298</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1145,7 +997,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>161226</v>
+        <v>187100</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1179,7 +1031,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1192,7 +1044,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>192755</v>
+        <v>215506</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1226,7 +1078,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1239,7 +1091,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>205146</v>
+        <v>213215</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1273,7 +1125,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1286,7 +1138,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>210997</v>
+        <v>242806</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1320,7 +1172,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1333,7 +1185,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>173298</v>
+        <v>271592</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1367,7 +1219,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1380,7 +1232,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>187100</v>
+        <v>305564</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1411,194 +1263,6 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>215506</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>213215</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>242806</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>271592</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
